--- a/0_document/기능 정리.xlsx
+++ b/0_document/기능 정리.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HeungDeveloperTools\0_Project_Workspace\Rise-Up-With-BigFoot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HeungDeveloperTools\0_Project_Workspace\Rise-Up-With-BigFoot\0_document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7EEF88-EC72-4900-BF1C-C2333FF17B0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580843A6-DC81-4559-9E7A-42310ABFAAC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15870" yWindow="-5925" windowWidth="11775" windowHeight="10875" xr2:uid="{3B9BC097-22C7-41ED-A843-DC892141FCD0}"/>
+    <workbookView xWindow="3000" yWindow="1455" windowWidth="19995" windowHeight="13260" xr2:uid="{3B9BC097-22C7-41ED-A843-DC892141FCD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="메모" sheetId="1" r:id="rId1"/>
+    <sheet name="Information Architecture" sheetId="4" r:id="rId2"/>
+    <sheet name="blank2" sheetId="5" r:id="rId3"/>
+    <sheet name="blank3" sheetId="3" r:id="rId4"/>
+    <sheet name="blank4" sheetId="6" r:id="rId5"/>
+    <sheet name="blank5" sheetId="7" r:id="rId6"/>
+    <sheet name="blank6" sheetId="8" r:id="rId7"/>
+    <sheet name="blank7" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,43 +43,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 환영문구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>환영문구</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 나에대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>나에대한 설명</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 프로젝트 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>프로젝트 소개</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 사용가능한 기술 소개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>프로젝트의 깃허브로 연결</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 프로젝트의 깃허브로 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>사용가능한 기술 소개</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 페이지 전환 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>페이지 전환 효과</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 헤더(앵커)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>헤더(앵커)</t>
   </si>
   <si>
-    <t xml:space="preserve"> - 푸터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>푸터</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +82,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -111,11 +118,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -133,6 +143,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F63601CB-2D1B-43F7-82AE-E716AA27760D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="400050"/>
+          <a:ext cx="1162050" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,76 +497,1960 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF193CE8-9CE2-4881-A0F1-26CDCE1AD283}">
-  <dimension ref="B3:B15"/>
+  <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
       <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79B159B-6801-41C0-97A4-C022D59230FA}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FCD6F7-D24C-4399-8C83-52BE98872B52}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D66AA6-4CB8-4CD4-84EB-57F3942635C1}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5430CEF-41B3-478C-B8C4-657259A013B9}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A066F62-5BC9-469A-BDB9-726F8E23210E}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86EDA334-0BFE-4035-9D7A-80CAD7998518}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C133AEAB-1163-4D1C-8716-9ABD073B0EC9}">
+  <dimension ref="A1:AC16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2">
+        <f>COLUMN()</f>
+        <v>1</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COLUMN()</f>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2">
+        <f>COLUMN()</f>
+        <v>3</v>
+      </c>
+      <c r="D1" s="2">
+        <f>COLUMN()</f>
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <f>COLUMN()</f>
+        <v>5</v>
+      </c>
+      <c r="F1" s="2">
+        <f>COLUMN()</f>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2">
+        <f>COLUMN()</f>
+        <v>7</v>
+      </c>
+      <c r="H1" s="2">
+        <f>COLUMN()</f>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2">
+        <f>COLUMN()</f>
+        <v>9</v>
+      </c>
+      <c r="J1" s="2">
+        <f>COLUMN()</f>
+        <v>10</v>
+      </c>
+      <c r="K1" s="2">
+        <f>COLUMN()</f>
+        <v>11</v>
+      </c>
+      <c r="L1" s="2">
+        <f>COLUMN()</f>
+        <v>12</v>
+      </c>
+      <c r="M1" s="2">
+        <f>COLUMN()</f>
+        <v>13</v>
+      </c>
+      <c r="N1" s="2">
+        <f>COLUMN()</f>
+        <v>14</v>
+      </c>
+      <c r="O1" s="2">
+        <f>COLUMN()</f>
+        <v>15</v>
+      </c>
+      <c r="P1" s="2">
+        <f>COLUMN()</f>
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2">
+        <f>COLUMN()</f>
+        <v>17</v>
+      </c>
+      <c r="R1" s="2">
+        <f>COLUMN()</f>
+        <v>18</v>
+      </c>
+      <c r="S1" s="2">
+        <f>COLUMN()</f>
+        <v>19</v>
+      </c>
+      <c r="T1" s="2">
+        <f>COLUMN()</f>
+        <v>20</v>
+      </c>
+      <c r="U1" s="2">
+        <f>COLUMN()</f>
+        <v>21</v>
+      </c>
+      <c r="V1" s="2">
+        <f>COLUMN()</f>
+        <v>22</v>
+      </c>
+      <c r="W1" s="2">
+        <f>COLUMN()</f>
+        <v>23</v>
+      </c>
+      <c r="X1" s="2">
+        <f>COLUMN()</f>
+        <v>24</v>
+      </c>
+      <c r="Y1" s="2">
+        <f>COLUMN()</f>
+        <v>25</v>
+      </c>
+      <c r="Z1" s="2">
+        <f>COLUMN()</f>
+        <v>26</v>
+      </c>
+      <c r="AA1" s="2">
+        <f>COLUMN()</f>
+        <v>27</v>
+      </c>
+      <c r="AB1" s="2">
+        <f>COLUMN()</f>
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2">
+        <f>COLUMN()</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <f>ROW()</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <f>ROW()</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <f>ROW()</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <f>ROW()</f>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <f>ROW()</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <f>ROW()</f>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <f>ROW()</f>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <f>ROW()</f>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <f>ROW()</f>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <f>ROW()</f>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <f>ROW()</f>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <f>ROW()</f>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <f>ROW()</f>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <f>ROW()</f>
+        <v>15</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <f>ROW()</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>